--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_30.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1807273.406567287</v>
+        <v>1869437.065135251</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17290971.53779843</v>
+        <v>16641689.10798709</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6053452.974915558</v>
+        <v>6056596.243659635</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>230.003803212365</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>297.7301919577154</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>60.27479449505189</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -868,16 +868,16 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>35.07848972458846</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -899,13 +899,13 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>317.8227870144768</v>
+        <v>102.3050349095835</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,10 +953,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
@@ -1057,22 +1057,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>61.42646062701154</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1114,10 +1114,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1133,22 +1133,22 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>113.4419073893309</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>398.8460216560019</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1303,13 +1303,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>5.278309621582041</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>154.0254420454385</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1427,7 +1427,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>173.7950029088938</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1622,7 +1622,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>18.2277202765958</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>32.67077719907376</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1777,13 +1777,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>24.34318456170453</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1819,7 +1819,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>52.51170991984807</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1898,7 +1898,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>78.23495004131613</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -2014,13 +2014,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>94.21878984361624</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>187.4537730419725</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2084,7 +2084,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773011</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -2245,7 +2245,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>132.9029306024362</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -2257,7 +2257,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>152.7178278970254</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2521,22 +2521,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>257.3293783238801</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>72.13424985736145</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
@@ -2728,10 +2728,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>103.8284742946032</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2773,10 +2773,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>125.1716544454844</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2959,16 +2959,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>35.34780583513581</v>
       </c>
       <c r="G31" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
@@ -3013,10 +3013,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>81.01098805494587</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -3199,10 +3199,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>3.139541480023013</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3253,7 +3253,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>169.2671526254255</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791304972</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3424,13 +3424,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>90.32734763589839</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
@@ -3439,7 +3439,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -3472,7 +3472,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3490,7 +3490,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>159.9413188205005</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884117</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
@@ -3667,19 +3667,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>113.577039180607</v>
+        <v>18.05677735225773</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3749,16 +3749,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>333.9727521751014</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629698</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
@@ -3800,7 +3800,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>351.0749436432788</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -3907,16 +3907,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>109.4519776932664</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3977,7 +3977,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884118</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -3989,13 +3989,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>212.6006968854817</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>32.67077719907219</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4138,22 +4138,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>24.3431845617047</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
@@ -4198,7 +4198,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>195.024710444267</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>954.2291820326056</v>
+        <v>770.1255231732238</v>
       </c>
       <c r="C2" t="n">
-        <v>920.1271132564331</v>
+        <v>331.9830503566471</v>
       </c>
       <c r="D2" t="n">
-        <v>491.5454389937014</v>
+        <v>99.65597640476322</v>
       </c>
       <c r="E2" t="n">
-        <v>461.8110981924006</v>
+        <v>69.92163560346246</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>46.09461005307426</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>46.09461005307426</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>46.09461005307426</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021426</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021426</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021426</v>
       </c>
       <c r="L2" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021426</v>
       </c>
       <c r="M2" t="n">
-        <v>33.94366860160834</v>
+        <v>437.7121214637584</v>
       </c>
       <c r="N2" t="n">
-        <v>267.8706684926505</v>
+        <v>1002.97515238141</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1568.238183299061</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1568.238183299061</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2114.736969257656</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010713</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010713</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010713</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2024.66873132773</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>2024.66873132773</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>1619.813276738763</v>
       </c>
       <c r="X2" t="n">
-        <v>1681.26632015157</v>
+        <v>1200.670813318074</v>
       </c>
       <c r="Y2" t="n">
-        <v>1380.528752517514</v>
+        <v>792.3846896177275</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>551.8495656715071</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>445.3931045081493</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>350.3028156547026</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>256.1824009816563</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>172.7985625978179</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>87.41347286400179</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021426</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021426</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021426</v>
       </c>
       <c r="K3" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021426</v>
       </c>
       <c r="L3" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021426</v>
       </c>
       <c r="M3" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021426</v>
       </c>
       <c r="N3" t="n">
-        <v>319.8519551513677</v>
+        <v>45.67782068021426</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>485.7428345149564</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1591.744804064683</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1708.917582159023</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1645.462144607406</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1515.283500938008</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1338.946953937976</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1139.829435999975</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>954.5066817331694</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>799.6392459720495</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>673.1534667512702</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>464.9233330929708</v>
+        <v>1124.735981292096</v>
       </c>
       <c r="C4" t="n">
-        <v>292.3616215761957</v>
+        <v>952.1742697753206</v>
       </c>
       <c r="D4" t="n">
-        <v>292.3616215761957</v>
+        <v>786.2962769768433</v>
       </c>
       <c r="E4" t="n">
-        <v>122.603617826933</v>
+        <v>616.5382732275806</v>
       </c>
       <c r="F4" t="n">
-        <v>122.603617826933</v>
+        <v>439.8312191893368</v>
       </c>
       <c r="G4" t="n">
-        <v>122.603617826933</v>
+        <v>274.2399442151644</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>134.3377699055389</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021426</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>132.2575058449041</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>132.2575058449041</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>550.4673876128652</v>
       </c>
       <c r="M4" t="n">
-        <v>1233.544589050298</v>
+        <v>1009.951254793778</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>1348.522115950257</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>1768.191365176039</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2115.698259146381</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010713</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2262.473212716085</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>2103.231844014082</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>2067.799026110457</v>
       </c>
       <c r="U4" t="n">
-        <v>1270.644793662241</v>
+        <v>1789.366025363562</v>
       </c>
       <c r="V4" t="n">
-        <v>1270.644793662241</v>
+        <v>1789.366025363562</v>
       </c>
       <c r="W4" t="n">
-        <v>998.6183892485328</v>
+        <v>1789.366025363562</v>
       </c>
       <c r="X4" t="n">
-        <v>753.2266345819453</v>
+        <v>1543.974270696975</v>
       </c>
       <c r="Y4" t="n">
-        <v>525.8069638960535</v>
+        <v>1316.554600011083</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>442.6402219259112</v>
+        <v>648.8602641703436</v>
       </c>
       <c r="C5" t="n">
-        <v>408.5381531497385</v>
+        <v>614.758195394171</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>511.4197762935816</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N5" t="n">
-        <v>267.8706684926505</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2307.443876365254</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="X5" t="n">
-        <v>1277.225916111166</v>
+        <v>1483.445958355598</v>
       </c>
       <c r="Y5" t="n">
-        <v>868.939792410819</v>
+        <v>1075.159834655251</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N6" t="n">
-        <v>319.8519551513677</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>383.2124341566272</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>210.6507226398521</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>210.6507226398521</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>210.6507226398521</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>120.5233537662982</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>538.7332355342593</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>1613.718678859515</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T7" t="n">
-        <v>1367.83923243797</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U7" t="n">
-        <v>1089.406231691076</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V7" t="n">
-        <v>802.450723561506</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W7" t="n">
-        <v>802.450723561506</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X7" t="n">
-        <v>802.450723561506</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y7" t="n">
-        <v>575.0310528756143</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>548.3728793740404</v>
+        <v>1671.95961582883</v>
       </c>
       <c r="C8" t="n">
-        <v>119.7912051113087</v>
+        <v>1637.857547052657</v>
       </c>
       <c r="D8" t="n">
-        <v>87.92182432615731</v>
+        <v>1605.988166267505</v>
       </c>
       <c r="E8" t="n">
-        <v>58.18748352485655</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F8" t="n">
-        <v>34.36045797446834</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>34.36045797446834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>267.8706684926505</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M8" t="n">
-        <v>687.9235674375537</v>
+        <v>141.0418768474983</v>
       </c>
       <c r="N8" t="n">
-        <v>687.9235674375537</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="O8" t="n">
-        <v>1107.976466382457</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1393.464329137293</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>1393.464329137293</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V8" t="n">
-        <v>1393.464329137293</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W8" t="n">
-        <v>1392.64927858873</v>
+        <v>1713.566561313561</v>
       </c>
       <c r="X8" t="n">
-        <v>973.506815168041</v>
+        <v>1698.464501933276</v>
       </c>
       <c r="Y8" t="n">
-        <v>570.6320458185442</v>
+        <v>1694.218782273333</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>33.94366860160834</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>33.94366860160834</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="K9" t="n">
-        <v>33.94366860160834</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="L9" t="n">
-        <v>33.94366860160834</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="M9" t="n">
-        <v>33.94366860160834</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="N9" t="n">
-        <v>319.8519551513677</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="O9" t="n">
-        <v>739.9048540962709</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>718.8484307043673</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>546.2867191875922</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>380.4087263891149</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>210.6507226398521</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>308.7021231727439</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>509.954387939391</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>509.954387939391</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>930.0072868842942</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1349.676536110076</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1675.765608785789</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1670.433982905403</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1670.433982905403</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.478474775834</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.478474775834</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1138.086720109246</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>910.6670494233545</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2523.375184062125</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C11" t="n">
         <v>2085.232711245548</v>
       </c>
       <c r="D11" t="n">
-        <v>1649.322926419993</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E11" t="n">
         <v>1215.548181578287</v>
       </c>
       <c r="F11" t="n">
-        <v>787.6807519874951</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G11" t="n">
-        <v>386.2829206107589</v>
+        <v>386.282920610759</v>
       </c>
       <c r="H11" t="n">
         <v>97.1527660539752</v>
@@ -5039,19 +5039,19 @@
         <v>96.7359766811152</v>
       </c>
       <c r="J11" t="n">
-        <v>531.9906641340331</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="K11" t="n">
-        <v>1366.340956092211</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="L11" t="n">
-        <v>1366.340956092211</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="M11" t="n">
-        <v>2312.656441940407</v>
+        <v>1253.783811891666</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940407</v>
+        <v>2379.514795328113</v>
       </c>
       <c r="O11" t="n">
         <v>3292.836108510714</v>
@@ -5066,25 +5066,25 @@
         <v>4836.79883405576</v>
       </c>
       <c r="S11" t="n">
-        <v>4836.79883405576</v>
+        <v>4753.146960239597</v>
       </c>
       <c r="T11" t="n">
-        <v>4616.731606928799</v>
+        <v>4533.079733112636</v>
       </c>
       <c r="U11" t="n">
-        <v>4357.509304245816</v>
+        <v>4273.857430429653</v>
       </c>
       <c r="V11" t="n">
-        <v>4181.958796257035</v>
+        <v>3911.240480363479</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.103341668068</v>
+        <v>3506.385025774513</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.960878247379</v>
+        <v>3087.242562353823</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.674754547033</v>
+        <v>2678.956438653477</v>
       </c>
     </row>
     <row r="12">
@@ -5115,22 +5115,22 @@
         <v>96.7359766811152</v>
       </c>
       <c r="I12" t="n">
-        <v>96.7359766811152</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J12" t="n">
-        <v>96.7359766811152</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="K12" t="n">
-        <v>96.7359766811152</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="L12" t="n">
-        <v>96.7359766811152</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="M12" t="n">
-        <v>96.7359766811152</v>
+        <v>282.3408549543107</v>
       </c>
       <c r="N12" t="n">
-        <v>96.7359766811152</v>
+        <v>282.3408549543107</v>
       </c>
       <c r="O12" t="n">
         <v>282.3408549543107</v>
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2523.375184062124</v>
+        <v>2252.656868168569</v>
       </c>
       <c r="C14" t="n">
-        <v>2085.232711245548</v>
+        <v>1814.514395351992</v>
       </c>
       <c r="D14" t="n">
-        <v>1649.322926419992</v>
+        <v>1378.604610526437</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.548181578287</v>
+        <v>944.8298656847319</v>
       </c>
       <c r="F14" t="n">
-        <v>787.680751987495</v>
+        <v>516.9624360939397</v>
       </c>
       <c r="G14" t="n">
-        <v>386.282920610759</v>
+        <v>115.5646047172031</v>
       </c>
       <c r="H14" t="n">
         <v>97.1527660539752</v>
@@ -5282,10 +5282,10 @@
         <v>96.7359766811152</v>
       </c>
       <c r="L14" t="n">
-        <v>1171.795942933975</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="M14" t="n">
-        <v>1186.92545850396</v>
+        <v>1253.783811891666</v>
       </c>
       <c r="N14" t="n">
         <v>2312.656441940407</v>
@@ -5303,25 +5303,25 @@
         <v>4836.79883405576</v>
       </c>
       <c r="S14" t="n">
-        <v>4803.798049006191</v>
+        <v>4753.146960239597</v>
       </c>
       <c r="T14" t="n">
-        <v>4803.798049006191</v>
+        <v>4533.079733112636</v>
       </c>
       <c r="U14" t="n">
-        <v>4544.575746323208</v>
+        <v>4273.857430429653</v>
       </c>
       <c r="V14" t="n">
-        <v>4181.958796257034</v>
+        <v>3911.240480363479</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.103341668068</v>
+        <v>3506.385025774513</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.960878247379</v>
+        <v>3087.242562353823</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.674754547032</v>
+        <v>2678.956438653477</v>
       </c>
     </row>
     <row r="15">
@@ -5352,22 +5352,22 @@
         <v>96.7359766811152</v>
       </c>
       <c r="I15" t="n">
-        <v>96.7359766811152</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J15" t="n">
-        <v>96.7359766811152</v>
+        <v>282.3408549543107</v>
       </c>
       <c r="K15" t="n">
-        <v>96.7359766811152</v>
+        <v>282.3408549543107</v>
       </c>
       <c r="L15" t="n">
-        <v>96.7359766811152</v>
+        <v>282.3408549543107</v>
       </c>
       <c r="M15" t="n">
-        <v>96.7359766811152</v>
+        <v>282.3408549543107</v>
       </c>
       <c r="N15" t="n">
-        <v>96.7359766811152</v>
+        <v>282.3408549543107</v>
       </c>
       <c r="O15" t="n">
         <v>282.3408549543107</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>806.2298140987272</v>
+        <v>1010.202862318824</v>
       </c>
       <c r="C16" t="n">
-        <v>633.6681025819521</v>
+        <v>837.6411508020492</v>
       </c>
       <c r="D16" t="n">
-        <v>467.7901097834748</v>
+        <v>671.763158003572</v>
       </c>
       <c r="E16" t="n">
-        <v>298.0321060342121</v>
+        <v>502.0051542543092</v>
       </c>
       <c r="F16" t="n">
-        <v>121.3250519959683</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="G16" t="n">
-        <v>96.7359766811152</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H16" t="n">
-        <v>96.7359766811152</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I16" t="n">
         <v>96.7359766811152</v>
@@ -5458,28 +5458,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="S16" t="n">
-        <v>2554.154217881911</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T16" t="n">
-        <v>2308.274771460366</v>
+        <v>2286.856950165738</v>
       </c>
       <c r="U16" t="n">
-        <v>2029.841770713472</v>
+        <v>2233.814818933569</v>
       </c>
       <c r="V16" t="n">
-        <v>1742.886262583902</v>
+        <v>1946.859310803999</v>
       </c>
       <c r="W16" t="n">
-        <v>1470.859858170194</v>
+        <v>1674.832906390291</v>
       </c>
       <c r="X16" t="n">
-        <v>1225.468103503606</v>
+        <v>1429.441151723703</v>
       </c>
       <c r="Y16" t="n">
-        <v>998.0484328177142</v>
+        <v>1202.021481037811</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2525.222555802381</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2087.080082985803</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1651.170298160248</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1217.395553318543</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>789.5281237277503</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>388.1302923510142</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>99.00013779423048</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>98.58334842137049</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>98.58334842137049</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>98.58334842137049</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L17" t="n">
-        <v>122.2462103061734</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M17" t="n">
-        <v>1279.294045516724</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N17" t="n">
-        <v>2405.025028953171</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3385.204695523477</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4213.514570356873</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4760.013356315468</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>4929.167421068524</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>4845.515547252361</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4625.4483201254</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4546.423118063464</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4183.806167997291</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3778.950713408324</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3359.808249987635</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2951.522126287288</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.7550934126633</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.2986322493056</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.2083433958588</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.0879287228125</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>225.7040903389741</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.319000605158</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>98.58334842137049</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>98.58334842137049</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>98.58334842137049</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K18" t="n">
-        <v>98.58334842137049</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L18" t="n">
-        <v>98.58334842137049</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M18" t="n">
-        <v>98.58334842137049</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N18" t="n">
-        <v>98.58334842137049</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="O18" t="n">
-        <v>284.188226694566</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P18" t="n">
-        <v>1103.911393173764</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1644.65033180584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1761.823109900179</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.367672348562</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.189028679164</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1391.852481679132</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1192.734963741132</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1007.412209474326</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>852.5447737132057</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.0589944924265</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>967.3185545409856</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C19" t="n">
-        <v>794.7568430242105</v>
+        <v>920.0973401405613</v>
       </c>
       <c r="D19" t="n">
-        <v>628.8788502257332</v>
+        <v>754.219347342084</v>
       </c>
       <c r="E19" t="n">
-        <v>459.1208464764705</v>
+        <v>584.4613435928213</v>
       </c>
       <c r="F19" t="n">
-        <v>282.4137924382268</v>
+        <v>407.7542895545776</v>
       </c>
       <c r="G19" t="n">
-        <v>187.2432976466952</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H19" t="n">
-        <v>187.2432976466952</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>98.58334842137049</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1630335860604</v>
+        <v>188.840525435474</v>
       </c>
       <c r="K19" t="n">
-        <v>459.9214881571959</v>
+        <v>463.5989800066096</v>
       </c>
       <c r="L19" t="n">
-        <v>878.1313699251569</v>
+        <v>881.8088617745706</v>
       </c>
       <c r="M19" t="n">
-        <v>1337.61523710607</v>
+        <v>1341.292728955484</v>
       </c>
       <c r="N19" t="n">
-        <v>1779.874040263715</v>
+        <v>1783.551532113128</v>
       </c>
       <c r="O19" t="n">
-        <v>2199.543289489496</v>
+        <v>2203.22078133891</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.050183459838</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.24295832417</v>
+        <v>2718.920450173584</v>
       </c>
       <c r="R19" t="n">
-        <v>2715.24295832417</v>
+        <v>2718.920450173584</v>
       </c>
       <c r="S19" t="n">
-        <v>2715.24295832417</v>
+        <v>2559.67908147158</v>
       </c>
       <c r="T19" t="n">
-        <v>2469.363511902625</v>
+        <v>2313.799635050035</v>
       </c>
       <c r="U19" t="n">
-        <v>2190.93051115573</v>
+        <v>2124.452389553093</v>
       </c>
       <c r="V19" t="n">
-        <v>1903.97500302616</v>
+        <v>1837.496881423524</v>
       </c>
       <c r="W19" t="n">
-        <v>1631.948598612452</v>
+        <v>1565.470477009816</v>
       </c>
       <c r="X19" t="n">
-        <v>1386.556843945865</v>
+        <v>1320.078722343228</v>
       </c>
       <c r="Y19" t="n">
-        <v>1159.137173259973</v>
+        <v>1092.659051657336</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
         <v>1654.847790009657</v>
@@ -5738,7 +5738,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
         <v>391.8077842004234</v>
@@ -5756,46 +5756,46 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L20" t="n">
-        <v>306.120802776629</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M20" t="n">
-        <v>1463.16863798718</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5826,25 +5826,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1057.146432354979</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C22" t="n">
-        <v>884.5847208382038</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D22" t="n">
-        <v>718.7067280397265</v>
+        <v>842.8792965674085</v>
       </c>
       <c r="E22" t="n">
-        <v>584.4613435928212</v>
+        <v>673.1212928181458</v>
       </c>
       <c r="F22" t="n">
-        <v>407.7542895545774</v>
+        <v>496.414238779902</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5914,46 +5914,46 @@
         <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745701</v>
       </c>
       <c r="M22" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113128</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2559.67908147158</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2313.799635050035</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303136</v>
+        <v>2159.539202830817</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173566</v>
+        <v>1872.583694701248</v>
       </c>
       <c r="W22" t="n">
-        <v>1476.384721759858</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="X22" t="n">
-        <v>1476.384721759858</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y22" t="n">
-        <v>1248.965051073966</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="23">
@@ -6063,25 +6063,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6169,19 +6169,19 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176948</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755404</v>
+        <v>2473.041003752035</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008509</v>
+        <v>2213.112338778418</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.99330487894</v>
+        <v>1926.156830648849</v>
       </c>
       <c r="W25" t="n">
         <v>1654.13042623514</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1600.55729028754</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6537,25 +6537,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883921</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716171</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731398</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>303.556969623877</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W31" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X31" t="n">
-        <v>1454.96690046523</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y31" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6698,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>306.120802776629</v>
       </c>
       <c r="K32" t="n">
-        <v>102.2608402707796</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L32" t="n">
-        <v>1177.320806523639</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M32" t="n">
-        <v>2334.36864173419</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N32" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6774,25 +6774,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
         <v>1107.588885023173</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>790.3368563937638</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C34" t="n">
-        <v>617.7751448769887</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D34" t="n">
-        <v>451.8971520785114</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E34" t="n">
-        <v>282.1391483292487</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F34" t="n">
-        <v>105.4320942910049</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6886,22 +6886,22 @@
         <v>2538.261260176948</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.948813008508</v>
+        <v>2259.828259430053</v>
       </c>
       <c r="V34" t="n">
-        <v>1726.993304878939</v>
+        <v>1972.872751300484</v>
       </c>
       <c r="W34" t="n">
-        <v>1454.96690046523</v>
+        <v>1700.846346886775</v>
       </c>
       <c r="X34" t="n">
-        <v>1209.575145798643</v>
+        <v>1455.454592220188</v>
       </c>
       <c r="Y34" t="n">
-        <v>982.155475112751</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="35">
@@ -6917,19 +6917,19 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771586</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004225</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436387</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6938,25 +6938,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289576</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321676</v>
+        <v>852.6195887352237</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532227</v>
+        <v>2009.667423945775</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968674</v>
+        <v>3135.398407382222</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.04201353898</v>
+        <v>4115.578073952528</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7011,25 +7011,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
         <v>1107.588885023173</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1015.441008084184</v>
+        <v>790.3368563937638</v>
       </c>
       <c r="C37" t="n">
-        <v>842.8792965674086</v>
+        <v>790.3368563937638</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>624.4588635952865</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H37" t="n">
         <v>190.9207894961043</v>
@@ -7120,25 +7120,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.502628878951</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T37" t="n">
-        <v>2451.623182457407</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2173.190181710512</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V37" t="n">
-        <v>1886.234673580942</v>
+        <v>1726.993304878939</v>
       </c>
       <c r="W37" t="n">
-        <v>1614.208269167234</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X37" t="n">
-        <v>1368.816514500646</v>
+        <v>1209.575145798643</v>
       </c>
       <c r="Y37" t="n">
-        <v>1207.259626803171</v>
+        <v>982.155475112751</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
         <v>2090.757574835212</v>
@@ -7160,10 +7160,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7178,46 +7178,46 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L38" t="n">
-        <v>475.2748675296854</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M38" t="n">
-        <v>1632.322702740236</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N38" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7248,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
         <v>1107.588885023173</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>834.8539430951544</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C40" t="n">
-        <v>662.2922315783794</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>496.4142387799021</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>496.4142387799021</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7354,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2582.778346878338</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2336.898900456793</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2058.465899709899</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1771.510391580329</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1499.483987166621</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1254.092232500033</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1026.672561814142</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2436.531460639025</v>
+        <v>2522.958394689266</v>
       </c>
       <c r="C41" t="n">
-        <v>1998.388987822449</v>
+        <v>2084.815921872689</v>
       </c>
       <c r="D41" t="n">
-        <v>1562.479202996893</v>
+        <v>1648.906137047133</v>
       </c>
       <c r="E41" t="n">
-        <v>1128.704458155188</v>
+        <v>1215.131392205428</v>
       </c>
       <c r="F41" t="n">
-        <v>791.3582438369042</v>
+        <v>787.2639626146361</v>
       </c>
       <c r="G41" t="n">
-        <v>389.9604124601681</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H41" t="n">
-        <v>100.8302579033843</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I41" t="n">
-        <v>100.4134685305243</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J41" t="n">
-        <v>100.4134685305243</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="K41" t="n">
-        <v>100.4134685305243</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="L41" t="n">
-        <v>213.7522157638655</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="M41" t="n">
-        <v>1370.800050974416</v>
+        <v>1253.783811891666</v>
       </c>
       <c r="N41" t="n">
-        <v>2496.531034410863</v>
+        <v>2379.514795328113</v>
       </c>
       <c r="O41" t="n">
-        <v>3476.71070098117</v>
+        <v>3359.694461898419</v>
       </c>
       <c r="P41" t="n">
-        <v>4305.020575814566</v>
+        <v>4188.004336731816</v>
       </c>
       <c r="Q41" t="n">
-        <v>4851.51936177316</v>
+        <v>4734.50312269041</v>
       </c>
       <c r="R41" t="n">
-        <v>5020.673426526217</v>
+        <v>4836.79883405576</v>
       </c>
       <c r="S41" t="n">
-        <v>4937.021552710054</v>
+        <v>4753.146960239597</v>
       </c>
       <c r="T41" t="n">
-        <v>4716.954325583092</v>
+        <v>4753.146960239597</v>
       </c>
       <c r="U41" t="n">
-        <v>4457.732022900109</v>
+        <v>4493.924657556614</v>
       </c>
       <c r="V41" t="n">
-        <v>4095.115072833935</v>
+        <v>4131.30770749044</v>
       </c>
       <c r="W41" t="n">
-        <v>3690.259618244969</v>
+        <v>3776.686552295209</v>
       </c>
       <c r="X41" t="n">
-        <v>3271.11715482428</v>
+        <v>3357.54408887452</v>
       </c>
       <c r="Y41" t="n">
-        <v>2862.831031123933</v>
+        <v>2949.257965174173</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>606.5852135218171</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C42" t="n">
-        <v>500.1287523584594</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D42" t="n">
-        <v>405.0384635050127</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E42" t="n">
-        <v>310.9180488319664</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F42" t="n">
-        <v>227.534210448128</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G42" t="n">
-        <v>142.1491207143119</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H42" t="n">
-        <v>100.4134685305243</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I42" t="n">
-        <v>100.4134685305243</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J42" t="n">
-        <v>100.4134685305243</v>
+        <v>447.3579748077852</v>
       </c>
       <c r="K42" t="n">
-        <v>100.4134685305243</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L42" t="n">
-        <v>100.4134685305243</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M42" t="n">
-        <v>100.4134685305243</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N42" t="n">
-        <v>100.4134685305243</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O42" t="n">
-        <v>286.0183468037196</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P42" t="n">
-        <v>1105.741513282918</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q42" t="n">
-        <v>1646.480451914993</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="R42" t="n">
-        <v>1763.653230009333</v>
+        <v>1759.975738159924</v>
       </c>
       <c r="S42" t="n">
-        <v>1700.197792457716</v>
+        <v>1696.520300608307</v>
       </c>
       <c r="T42" t="n">
-        <v>1570.019148788318</v>
+        <v>1566.341656938909</v>
       </c>
       <c r="U42" t="n">
-        <v>1393.682601788286</v>
+        <v>1390.005109938877</v>
       </c>
       <c r="V42" t="n">
-        <v>1194.565083850285</v>
+        <v>1190.887592000876</v>
       </c>
       <c r="W42" t="n">
-        <v>1009.242329583479</v>
+        <v>1005.56483773407</v>
       </c>
       <c r="X42" t="n">
-        <v>854.3748938223595</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.8891146015802</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>947.7308533555112</v>
+        <v>947.2320137580465</v>
       </c>
       <c r="C43" t="n">
-        <v>775.1691418387361</v>
+        <v>774.6703022412714</v>
       </c>
       <c r="D43" t="n">
-        <v>609.2911490402588</v>
+        <v>608.7923094427941</v>
       </c>
       <c r="E43" t="n">
-        <v>439.5331452909961</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F43" t="n">
-        <v>439.5331452909961</v>
+        <v>262.3272516552876</v>
       </c>
       <c r="G43" t="n">
-        <v>328.9755920654745</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="H43" t="n">
-        <v>189.073417755849</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I43" t="n">
-        <v>100.4134685305243</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J43" t="n">
-        <v>186.9931536952142</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7516082663498</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L43" t="n">
-        <v>879.9614900343107</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M43" t="n">
-        <v>1339.445357215223</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N43" t="n">
-        <v>1781.704160372867</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O43" t="n">
-        <v>2201.373409598649</v>
+        <v>2197.695917749241</v>
       </c>
       <c r="P43" t="n">
-        <v>2548.880303568991</v>
+        <v>2545.202811719583</v>
       </c>
       <c r="Q43" t="n">
-        <v>2717.073078433323</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="R43" t="n">
-        <v>2695.655257138695</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S43" t="n">
-        <v>2695.655257138695</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T43" t="n">
-        <v>2449.77581071715</v>
+        <v>2449.276971119686</v>
       </c>
       <c r="U43" t="n">
-        <v>2171.342809970256</v>
+        <v>2170.843970372791</v>
       </c>
       <c r="V43" t="n">
-        <v>1884.387301840686</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W43" t="n">
-        <v>1612.360897426978</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X43" t="n">
-        <v>1366.96914276039</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y43" t="n">
-        <v>1139.549472074498</v>
+        <v>1139.050632477034</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2336.308741984732</v>
+        <v>2523.375184062125</v>
       </c>
       <c r="C44" t="n">
-        <v>1898.166269168155</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D44" t="n">
-        <v>1462.2564843426</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E44" t="n">
-        <v>1028.481739500895</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F44" t="n">
-        <v>600.6143099101026</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G44" t="n">
-        <v>385.8661312378989</v>
+        <v>386.282920610759</v>
       </c>
       <c r="H44" t="n">
-        <v>96.7359766811152</v>
+        <v>97.1527660539752</v>
       </c>
       <c r="I44" t="n">
         <v>96.7359766811152</v>
@@ -7652,46 +7652,46 @@
         <v>96.7359766811152</v>
       </c>
       <c r="L44" t="n">
-        <v>199.0316880464659</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="M44" t="n">
-        <v>1356.079523257017</v>
+        <v>1253.783811891666</v>
       </c>
       <c r="N44" t="n">
-        <v>2481.810506693464</v>
+        <v>2379.514795328113</v>
       </c>
       <c r="O44" t="n">
-        <v>3461.99017326377</v>
+        <v>3359.694461898419</v>
       </c>
       <c r="P44" t="n">
-        <v>4290.300048097166</v>
+        <v>4188.004336731816</v>
       </c>
       <c r="Q44" t="n">
-        <v>4836.79883405576</v>
+        <v>4734.50312269041</v>
       </c>
       <c r="R44" t="n">
         <v>4836.79883405576</v>
       </c>
       <c r="S44" t="n">
-        <v>4836.79883405576</v>
+        <v>4803.798049006193</v>
       </c>
       <c r="T44" t="n">
-        <v>4616.731606928799</v>
+        <v>4803.798049006193</v>
       </c>
       <c r="U44" t="n">
-        <v>4357.509304245816</v>
+        <v>4544.575746323209</v>
       </c>
       <c r="V44" t="n">
-        <v>3994.892354179642</v>
+        <v>4181.958796257036</v>
       </c>
       <c r="W44" t="n">
-        <v>3590.036899590675</v>
+        <v>3777.103341668069</v>
       </c>
       <c r="X44" t="n">
-        <v>3170.894436169986</v>
+        <v>3357.96087824738</v>
       </c>
       <c r="Y44" t="n">
-        <v>2762.608312469639</v>
+        <v>2949.674754547033</v>
       </c>
     </row>
     <row r="45">
@@ -7722,25 +7722,25 @@
         <v>96.7359766811152</v>
       </c>
       <c r="I45" t="n">
-        <v>96.7359766811152</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J45" t="n">
-        <v>96.7359766811152</v>
+        <v>447.3579748077852</v>
       </c>
       <c r="K45" t="n">
-        <v>96.7359766811152</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L45" t="n">
-        <v>96.7359766811152</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M45" t="n">
-        <v>96.7359766811152</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N45" t="n">
-        <v>96.7359766811152</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3408549543107</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P45" t="n">
         <v>1102.064021433509</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>833.2090904562755</v>
+        <v>806.2298140987274</v>
       </c>
       <c r="C46" t="n">
-        <v>660.6473789395004</v>
+        <v>633.6681025819523</v>
       </c>
       <c r="D46" t="n">
-        <v>660.6473789395004</v>
+        <v>467.790109783475</v>
       </c>
       <c r="E46" t="n">
-        <v>490.8893751902377</v>
+        <v>298.0321060342122</v>
       </c>
       <c r="F46" t="n">
-        <v>490.8893751902377</v>
+        <v>121.3250519959684</v>
       </c>
       <c r="G46" t="n">
-        <v>325.2981002160653</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="H46" t="n">
-        <v>185.3959259064399</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I46" t="n">
         <v>96.7359766811152</v>
@@ -7828,28 +7828,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R46" t="n">
-        <v>2691.977765289287</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S46" t="n">
-        <v>2532.736396587283</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T46" t="n">
-        <v>2286.856950165738</v>
+        <v>2308.274771460366</v>
       </c>
       <c r="U46" t="n">
-        <v>2008.423949418844</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V46" t="n">
-        <v>1721.468441289274</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W46" t="n">
-        <v>1449.442036875566</v>
+        <v>1470.859858170194</v>
       </c>
       <c r="X46" t="n">
-        <v>1252.447379861155</v>
+        <v>1225.468103503606</v>
       </c>
       <c r="Y46" t="n">
-        <v>1025.027709175263</v>
+        <v>998.0484328177145</v>
       </c>
     </row>
   </sheetData>
@@ -7985,19 +7985,19 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>395.9942432157012</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2898988798406</v>
+        <v>570.9727585026783</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026783</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8067,16 +8067,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>444.510114984588</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>570.9727585026783</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,25 +8137,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>44.41372909529082</v>
+        <v>341.9907688449284</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8225,16 +8225,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8304,16 +8304,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,25 +8374,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>321.9475215913873</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8456,25 +8456,25 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>424.2958575201043</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,7 +8526,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -8541,16 +8541,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201043</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,19 +8608,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>203.2851159259061</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,22 +8687,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>955.8742281294913</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831379</v>
+        <v>922.5467809925258</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8775,13 +8775,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>161.1527324371089</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>828.0031984638366</v>
@@ -8930,13 +8930,13 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>15.28233895958147</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>1069.568313180547</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9000,10 +9000,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>161.1527324371089</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9018,7 +9018,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>828.0031984638366</v>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>23.90188069172011</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9255,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234298</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P18" t="n">
         <v>828.0031984638366</v>
@@ -9404,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>205.9191540463125</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -9474,13 +9474,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,10 +9492,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9711,13 +9711,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9729,10 +9729,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -10185,13 +10185,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10203,10 +10203,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10346,13 +10346,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -10364,13 +10364,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>679.5583048465023</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,13 +10422,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10440,10 +10440,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10586,10 +10586,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>922.6993899926451</v>
+        <v>757.9381297620648</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -10601,13 +10601,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,13 +10659,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10677,10 +10677,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10826,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>376.7818457160665</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,13 +10896,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10914,10 +10914,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>114.483583063981</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>1168.735187081365</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>103.329001379142</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,13 +11133,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11151,10 +11151,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11300,7 +11300,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>103.3290013791421</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>103.329001379142</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,13 +11370,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,10 +11388,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>268.0111327346202</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>185.1957776566179</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>268.0111327346201</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>50.1445778789276</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.5921776627261</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>223.1369608195776</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>178.3951296148371</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>69.71657238081437</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23938,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>88.19489769745321</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24133,7 +24133,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>35.15749310933387</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>122.9308428424003</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24409,22 +24409,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>18.31929241554561</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>197.1718905122099</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,10 +24661,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>144.134485924087</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>139.5921776627255</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>144.1344859240869</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25087,10 +25087,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>55.8783213536073</v>
       </c>
     </row>
     <row r="35">
@@ -25312,13 +25312,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>77.73307607587172</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>65.20415515853227</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25555,19 +25555,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>44.07191583437631</v>
+        <v>139.5921776627256</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25637,7 +25637,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>89.61600311978293</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25646,7 +25646,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,7 +25679,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25688,7 +25688,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>49.7319563997982</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>54.48338453116422</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25877,13 +25877,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>184.7831561774871</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,10 +25913,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>50.14457787892917</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>47.91312667565463</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>505523.8979716766</v>
+        <v>505523.8979716765</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>505523.8979716766</v>
+        <v>505523.8979716765</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>512657.3318200113</v>
+        <v>526857.5841373524</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>526857.5841373523</v>
+        <v>526857.5841373525</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>526857.5841373524</v>
+        <v>526857.5841373523</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>526857.5841373523</v>
+        <v>526857.5841373524</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>519724.1502890176</v>
+        <v>505523.8979716764</v>
       </c>
     </row>
     <row r="16">
@@ -26314,7 +26314,7 @@
         <v>402110.4899178064</v>
       </c>
       <c r="C2" t="n">
-        <v>402110.4899178064</v>
+        <v>402110.4899178063</v>
       </c>
       <c r="D2" t="n">
         <v>402110.4899178064</v>
@@ -26323,34 +26323,34 @@
         <v>379142.9234787574</v>
       </c>
       <c r="F2" t="n">
-        <v>379142.9234787574</v>
+        <v>379142.9234787573</v>
       </c>
       <c r="G2" t="n">
-        <v>384492.9988650084</v>
+        <v>395143.1881030143</v>
       </c>
       <c r="H2" t="n">
-        <v>395143.1881030142</v>
+        <v>395143.1881030143</v>
       </c>
       <c r="I2" t="n">
         <v>395143.1881030143</v>
       </c>
       <c r="J2" t="n">
-        <v>395143.1881030142</v>
+        <v>395143.1881030143</v>
       </c>
       <c r="K2" t="n">
         <v>395143.1881030142</v>
       </c>
       <c r="L2" t="n">
-        <v>395143.1881030142</v>
+        <v>395143.1881030143</v>
       </c>
       <c r="M2" t="n">
         <v>395143.1881030142</v>
       </c>
       <c r="N2" t="n">
-        <v>395143.1881030141</v>
+        <v>395143.1881030142</v>
       </c>
       <c r="O2" t="n">
-        <v>389793.1127167631</v>
+        <v>379142.9234787573</v>
       </c>
       <c r="P2" t="n">
         <v>379142.9234787573</v>
@@ -26363,40 +26363,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>191346.1037476931</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>31190.03493745947</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>234355.0220220375</v>
+        <v>161735.0752101145</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6329.211042848324</v>
+        <v>18928.52796216466</v>
       </c>
       <c r="H3" t="n">
-        <v>12402.75497996535</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>149391.5964256748</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>24846.93678393362</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>195601.1792830678</v>
+        <v>134989.9446130036</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169168.0932697598</v>
+        <v>135599.3120662814</v>
       </c>
       <c r="C4" t="n">
-        <v>169168.0932697598</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="D4" t="n">
-        <v>169168.0932697598</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="E4" t="n">
         <v>773.6821211687734</v>
       </c>
       <c r="F4" t="n">
-        <v>773.6821211687734</v>
+        <v>773.6821211687735</v>
       </c>
       <c r="G4" t="n">
-        <v>784.5995283440639</v>
+        <v>806.3323907826079</v>
       </c>
       <c r="H4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907826025</v>
       </c>
       <c r="I4" t="n">
         <v>806.3323907826023</v>
@@ -26445,19 +26445,19 @@
         <v>806.3323907826023</v>
       </c>
       <c r="L4" t="n">
-        <v>806.3323907826021</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="M4" t="n">
-        <v>806.3323907826432</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="N4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907825636</v>
       </c>
       <c r="O4" t="n">
-        <v>795.4149836073118</v>
+        <v>773.6821211687278</v>
       </c>
       <c r="P4" t="n">
-        <v>773.6821211687734</v>
+        <v>773.6821211687326</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>68342.74371696284</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
         <v>73519.34227764755</v>
@@ -26482,10 +26482,10 @@
         <v>73519.34227764755</v>
       </c>
       <c r="G5" t="n">
-        <v>74923.34480024157</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26500,13 +26500,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>76314.23608319848</v>
+        <v>73519.34227764755</v>
       </c>
       <c r="P5" t="n">
         <v>73519.34227764755</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31326.30785111438</v>
+        <v>6822.330386869115</v>
       </c>
       <c r="C6" t="n">
-        <v>173517.6085108243</v>
+        <v>183203.5242003386</v>
       </c>
       <c r="D6" t="n">
-        <v>173517.6085108243</v>
+        <v>214393.5591377981</v>
       </c>
       <c r="E6" t="n">
-        <v>70494.87705790356</v>
+        <v>143038.2653150297</v>
       </c>
       <c r="F6" t="n">
-        <v>304849.8990799411</v>
+        <v>304773.3405251441</v>
       </c>
       <c r="G6" t="n">
-        <v>302455.8434935744</v>
+        <v>297666.8648048919</v>
       </c>
       <c r="H6" t="n">
-        <v>304215.8621264737</v>
+        <v>316595.3927670565</v>
       </c>
       <c r="I6" t="n">
-        <v>316618.6171064391</v>
+        <v>316595.3927670565</v>
       </c>
       <c r="J6" t="n">
-        <v>205604.1517614489</v>
+        <v>167203.7963413817</v>
       </c>
       <c r="K6" t="n">
-        <v>316618.6171064391</v>
+        <v>291748.4559831228</v>
       </c>
       <c r="L6" t="n">
-        <v>316618.6171064391</v>
+        <v>316595.3927670565</v>
       </c>
       <c r="M6" t="n">
-        <v>121017.4378233713</v>
+        <v>181605.4481540529</v>
       </c>
       <c r="N6" t="n">
-        <v>316618.617106439</v>
+        <v>316595.3927670565</v>
       </c>
       <c r="O6" t="n">
-        <v>312683.4616499573</v>
+        <v>304773.3405251441</v>
       </c>
       <c r="P6" t="n">
-        <v>304849.899079941</v>
+        <v>304773.3405251442</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026783</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1209.19970851394</v>
@@ -26802,7 +26802,7 @@
         <v>1209.19970851394</v>
       </c>
       <c r="G4" t="n">
-        <v>1232.291855267131</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26826,7 +26826,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1255.168356631554</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="P4" t="n">
         <v>1209.19970851394</v>
@@ -27009,40 +27009,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026783</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>96.54244810517866</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>784.9038509938357</v>
+        <v>541.6845019060831</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.09214675319088</v>
+        <v>69.06079487080524</v>
       </c>
       <c r="H4" t="n">
-        <v>45.96864811761413</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026783</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>96.54244810517866</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938355</v>
+        <v>541.6845019060831</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,25 +27255,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026783</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>96.54244810517866</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938357</v>
+        <v>541.6845019060831</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.09214675319088</v>
+        <v>69.06079487080524</v>
       </c>
       <c r="P4" t="n">
-        <v>45.96864811761413</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>201.5468837649349</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27397,7 +27397,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>106.4730705056277</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>129.6256380367453</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27588,16 +27588,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>208.3421622327408</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27619,13 +27619,13 @@
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>113.7278999628231</v>
+        <v>329.2456520677164</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27634,7 +27634,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,10 +27673,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27777,22 +27777,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>96.22249438797175</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,10 +27834,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,73 +27853,73 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>82.81535507800136</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>287.3649926537461</v>
+      </c>
+      <c r="X8" t="n">
         <v>400</v>
       </c>
-      <c r="F8" t="n">
+      <c r="Y8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>397.3838530629687</v>
-      </c>
-      <c r="H8" t="n">
-        <v>286.2388530112159</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>256.6300796561533</v>
-      </c>
-      <c r="V8" t="n">
-        <v>358.9907805655117</v>
-      </c>
-      <c r="W8" t="n">
-        <v>400</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>5.357240807341213</v>
       </c>
     </row>
     <row r="9">
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>238.1423423357472</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-8.63709516081679e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28743,7 +28743,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-12</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-5.621818412198717e-13</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -28986,7 +28986,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -34705,19 +34705,19 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>395.9942432157012</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2898988798406</v>
+        <v>570.9727585026783</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026783</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34787,16 +34787,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>444.510114984588</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>570.9727585026783</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>44.41372909529082</v>
+        <v>341.9907688449284</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34945,16 +34945,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35024,16 +35024,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>321.9475215913873</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35176,25 +35176,25 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>424.2958575201043</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,7 +35246,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -35261,16 +35261,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201043</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>203.2851159259061</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,22 +35407,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>955.8742281294913</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831377</v>
+        <v>922.5467809925258</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -35495,13 +35495,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>161.1527324371089</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>828.0031984638366</v>
@@ -35650,13 +35650,13 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>15.28233895958147</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>1069.568313180547</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35720,10 +35720,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>161.1527324371089</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35738,7 +35738,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>828.0031984638366</v>
@@ -35887,7 +35887,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>23.90188069172011</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
@@ -35899,7 +35899,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458542</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35975,7 +35975,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234298</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P18" t="n">
         <v>828.0031984638366</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908522</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36124,7 +36124,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>205.9191540463125</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36212,10 +36212,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080456</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36449,10 +36449,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36525,10 +36525,10 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N25" t="n">
-        <v>446.7260637956008</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36923,10 +36923,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -37066,13 +37066,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -37084,13 +37084,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>679.5583048465023</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37160,10 +37160,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37239,7 +37239,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37306,10 +37306,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>922.6993899926451</v>
+        <v>757.9381297620648</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -37321,13 +37321,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37397,10 +37397,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37546,7 +37546,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>376.7818457160665</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -37564,7 +37564,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37634,10 +37634,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37713,7 +37713,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37783,7 +37783,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>114.483583063981</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>1168.735187081365</v>
@@ -37801,7 +37801,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>103.329001379142</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37871,10 +37871,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645577</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38020,7 +38020,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>103.3290013791421</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -38038,7 +38038,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>103.329001379142</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38108,10 +38108,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
